--- a/mkpk-web/src/test/resources/com/merkapack/erp/planning/test/PlanningExcelTest.xlsx
+++ b/mkpk-web/src/test/resources/com/merkapack/erp/planning/test/PlanningExcelTest.xlsx
@@ -124,7 +124,7 @@
     <t xml:space="preserve">300x350</t>
   </si>
   <si>
-    <t xml:space="preserve">PAST.CIES</t>
+    <t xml:space="preserve">CIES</t>
   </si>
   <si>
     <t xml:space="preserve">240x350</t>
@@ -140,11 +140,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -161,112 +162,16 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -274,23 +179,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -314,23 +204,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -338,91 +211,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -433,13 +229,13 @@
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>

--- a/mkpk-web/src/test/resources/com/merkapack/erp/planning/test/PlanningExcelTest.xlsx
+++ b/mkpk-web/src/test/resources/com/merkapack/erp/planning/test/PlanningExcelTest.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t xml:space="preserve">cliente</t>
   </si>
@@ -28,109 +28,110 @@
     <t xml:space="preserve">producto</t>
   </si>
   <si>
-    <t xml:space="preserve">material</t>
-  </si>
-  <si>
     <t xml:space="preserve">cantidad</t>
   </si>
   <si>
     <t xml:space="preserve">PACKAGING</t>
   </si>
   <si>
-    <t xml:space="preserve">170x250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOFER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175x250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300x500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">350x500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150x450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250x350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200x300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLATA</t>
+    <t xml:space="preserve">VS80170250</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TOFER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">VAC</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">VS09175250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS80300500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS80350500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE09150450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS80250350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS12250350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS09200300</t>
   </si>
   <si>
     <t xml:space="preserve">SACOPISA</t>
   </si>
   <si>
-    <t xml:space="preserve">130x300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150x300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180x300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220x300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250x300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250x400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300x400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125x400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200x400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">350x400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">350x600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400x600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200x200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200x350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300x350</t>
+    <t xml:space="preserve">VS85130265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS85150300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS85180300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS85200300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS85220300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS85250300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS85250400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS85300400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS85125400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS85200400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS85350400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS85350600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS85400600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS80200200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS85200350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS85300350</t>
   </si>
   <si>
     <t xml:space="preserve">CIES</t>
   </si>
   <si>
-    <t xml:space="preserve">240x350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPA90/CPP100</t>
+    <t xml:space="preserve">CE19240350</t>
   </si>
 </sst>
 </file>
@@ -140,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -161,6 +162,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,12 +218,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -227,18 +233,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -251,399 +256,312 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="C2" s="0" t="n">
         <v>55000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="C3" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="C4" s="0" t="n">
         <v>30000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="0" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>6500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>40000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>25000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>15000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>90000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>15000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>30000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>180000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>40000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="C17" s="0" t="n">
         <v>35000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>40000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>90000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>25000</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>25000</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>30000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>15000</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>150000</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>50000</v>
       </c>
     </row>
